--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637056</v>
+        <v>3943811.334119151</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>2.233508575124533</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>9.431262668468642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.3823171366807</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,10 +944,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.47369082546862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612862</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>290.8015738046574</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334358</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.7835007017902</v>
+        <v>155.4526127311944</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.006892987834117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>88.98787776789642</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.5795121770518</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>211.353176281105</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.63412424768257</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162933</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>54.31367585848636</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356922</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097486</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>56.49518623012952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.566937845283</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2639.864332280913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2421.229665252976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2421.229665252976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2090.166777909405</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.166777909405</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.166777909405</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.166777909405</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>463.9179680525992</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1430.355453824634</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1430.355453824634</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1072.089755217884</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888756</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1816.955293888756</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>106.9467099268984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>106.9467099268984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9467099268984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>106.9467099268984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.9467099268984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>1053.350203651865</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.251950079336</v>
+        <v>684.3876867114534</v>
       </c>
       <c r="D8" t="n">
-        <v>1253.251950079336</v>
+        <v>684.3876867114534</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>298.5994341132092</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>291.6539333640057</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1443.489535627677</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1053.350203651865</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>598.044640063212</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773688</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>264.0500279773688</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>96.85392869224876</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052757</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6230,19 +6230,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.483279497101</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.6907003535711</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6464,25 +6464,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029407</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898186995</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797747</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6926,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>398.4954786600653</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
         <v>322.7933138979686</v>
@@ -7801,55 +7801,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516225</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>56.43317025503482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>74.83129810813918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.74112246243909</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.241159265644</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.18682368252027</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977563</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670465</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="H4" t="n">
         <v>5067.59260167046</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.59260167043</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670417</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670398</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670361</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670427</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800927</v>
+        <v>-73375.73758800924</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265353</v>
+        <v>516592.1416265352</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265354</v>
+        <v>516592.1416265355</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.9654855305</v>
+        <v>-263629.7034109662</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.8122721781</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467432</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721786</v>
+        <v>680743.0743467422</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795852</v>
+        <v>504319.8551541498</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467431</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721781</v>
+        <v>680743.0743467428</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.3015641199</v>
+        <v>556534.5636386836</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467428</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721781</v>
+        <v>680743.0743467426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>172.182204233847</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>277.0917356681223</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.5480529355811</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.4919309668696</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438903</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>91.1287962676044</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374514</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.25160475629406</v>
+        <v>69.58249272688983</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>463.4789474089062</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518786</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,25 +33494,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9330708814852</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>569.5723171953896</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,19 +36197,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>325.6375084345472</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074342</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>44.09163190712619</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
